--- a/xlsx-templates/open_account.xlsx
+++ b/xlsx-templates/open_account.xlsx
@@ -5,7 +5,7 @@
   <workbookPr filterPrivacy="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangchen/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/yangchen/Desktop/Labs/oa/backend/xlsx-templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -649,7 +649,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -799,24 +799,10 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="20"/>
       <color indexed="8"/>
       <name val="黑体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="20"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
     </font>
@@ -1334,66 +1320,66 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" textRotation="255" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1426,97 +1412,97 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="255"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1537,35 +1523,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" textRotation="255"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1606,15 +1601,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1636,10 +1622,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1654,7 +1640,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2092,17 +2078,17 @@
     <row r="1" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64"/>
-      <c r="I3" s="64"/>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+      <c r="E3" s="60"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="60"/>
+      <c r="H3" s="60"/>
+      <c r="I3" s="60"/>
     </row>
     <row r="4" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
@@ -2115,200 +2101,205 @@
       <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="63" t="s">
+      <c r="A5" s="59" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="63"/>
-      <c r="E5" s="63"/>
-      <c r="F5" s="63"/>
-      <c r="G5" s="63"/>
-      <c r="H5" s="63"/>
-      <c r="I5" s="63"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="59"/>
+      <c r="I5" s="59"/>
     </row>
     <row r="6" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="63" t="s">
+      <c r="A6" s="59" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="63"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="66"/>
-      <c r="E6" s="67"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="61"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="63"/>
       <c r="F6" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="68"/>
-      <c r="H6" s="69"/>
-      <c r="I6" s="70"/>
+      <c r="G6" s="64"/>
+      <c r="H6" s="65"/>
+      <c r="I6" s="66"/>
     </row>
     <row r="7" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="59" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="63"/>
-      <c r="C7" s="71" t="s">
+      <c r="B7" s="59"/>
+      <c r="C7" s="67" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="71"/>
-      <c r="E7" s="71"/>
-      <c r="F7" s="71"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67"/>
+      <c r="F7" s="67"/>
       <c r="G7" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="72"/>
-      <c r="I7" s="72"/>
+      <c r="H7" s="68"/>
+      <c r="I7" s="68"/>
     </row>
     <row r="8" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="63" t="s">
+      <c r="A8" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="63"/>
-      <c r="C8" s="73" t="s">
+      <c r="B8" s="59"/>
+      <c r="C8" s="69" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="73"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="73"/>
-      <c r="H8" s="73"/>
-      <c r="I8" s="73"/>
+      <c r="D8" s="69"/>
+      <c r="E8" s="69"/>
+      <c r="F8" s="69"/>
+      <c r="G8" s="69"/>
+      <c r="H8" s="69"/>
+      <c r="I8" s="69"/>
     </row>
     <row r="9" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="63"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="73"/>
-      <c r="D9" s="73"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="73"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="73"/>
-      <c r="I9" s="73"/>
+      <c r="A9" s="59"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="69"/>
+      <c r="D9" s="69"/>
+      <c r="E9" s="69"/>
+      <c r="F9" s="69"/>
+      <c r="G9" s="69"/>
+      <c r="H9" s="69"/>
+      <c r="I9" s="69"/>
     </row>
     <row r="10" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="63"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="73"/>
-      <c r="D10" s="73"/>
-      <c r="E10" s="73"/>
-      <c r="F10" s="73"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="73"/>
-      <c r="I10" s="73"/>
+      <c r="A10" s="59"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="69"/>
+      <c r="F10" s="69"/>
+      <c r="G10" s="69"/>
+      <c r="H10" s="69"/>
+      <c r="I10" s="69"/>
     </row>
     <row r="11" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="63" t="s">
+      <c r="A11" s="59" t="s">
         <v>72</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="63"/>
-      <c r="F11" s="63"/>
-      <c r="G11" s="63"/>
-      <c r="H11" s="63"/>
-      <c r="I11" s="63"/>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="59"/>
+      <c r="G11" s="59"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="59"/>
     </row>
     <row r="12" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="63"/>
+      <c r="A12" s="59"/>
       <c r="B12" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="63"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="63"/>
-      <c r="F12" s="63"/>
-      <c r="G12" s="63"/>
-      <c r="H12" s="63"/>
-      <c r="I12" s="63"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="59"/>
+      <c r="F12" s="59"/>
+      <c r="G12" s="59"/>
+      <c r="H12" s="59"/>
+      <c r="I12" s="59"/>
     </row>
     <row r="13" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="63"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="63"/>
-      <c r="D13" s="63"/>
-      <c r="E13" s="63"/>
-      <c r="F13" s="63"/>
-      <c r="G13" s="63"/>
-      <c r="H13" s="63"/>
-      <c r="I13" s="63"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
+      <c r="E13" s="59"/>
+      <c r="F13" s="59"/>
+      <c r="G13" s="59"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="59"/>
     </row>
     <row r="14" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="63"/>
+      <c r="A14" s="59"/>
       <c r="B14" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="63"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="63"/>
-      <c r="F14" s="63"/>
-      <c r="G14" s="63"/>
-      <c r="H14" s="63"/>
-      <c r="I14" s="63"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="59"/>
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="I14" s="59"/>
     </row>
     <row r="15" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="63" t="s">
+      <c r="A15" s="59" t="s">
         <v>76</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="63"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="63"/>
-      <c r="F15" s="63"/>
-      <c r="G15" s="63"/>
-      <c r="H15" s="63"/>
-      <c r="I15" s="63"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
+      <c r="E15" s="59"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="59"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="59"/>
     </row>
     <row r="16" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="63"/>
+      <c r="A16" s="59"/>
       <c r="B16" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="63"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="63"/>
-      <c r="F16" s="63"/>
-      <c r="G16" s="63"/>
-      <c r="H16" s="63"/>
-      <c r="I16" s="63"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
     </row>
     <row r="17" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="63"/>
+      <c r="A17" s="59"/>
       <c r="B17" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="63"/>
-      <c r="D17" s="63"/>
-      <c r="E17" s="63"/>
-      <c r="F17" s="63"/>
-      <c r="G17" s="63"/>
-      <c r="H17" s="63"/>
-      <c r="I17" s="63"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
     </row>
     <row r="18" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="63"/>
+      <c r="A18" s="59"/>
       <c r="B18" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="63"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="63"/>
-      <c r="F18" s="63"/>
-      <c r="G18" s="63"/>
-      <c r="H18" s="63"/>
-      <c r="I18" s="63"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C15:I15"/>
     <mergeCell ref="C13:I13"/>
     <mergeCell ref="C16:I16"/>
     <mergeCell ref="A3:I3"/>
@@ -2325,11 +2316,6 @@
     <mergeCell ref="A8:B10"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A5:B5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C15:I15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2371,12 +2357,12 @@
       <c r="A2" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
     </row>
     <row r="3" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
@@ -2849,7 +2835,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="164" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
@@ -2878,33 +2864,33 @@
       <c r="A2" s="56" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="70"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="66"/>
     </row>
     <row r="3" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="56" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="72"/>
-      <c r="C3" s="72"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="56" t="s">
         <v>130</v>
       </c>
       <c r="E3" s="136"/>
-      <c r="F3" s="72"/>
+      <c r="F3" s="68"/>
     </row>
     <row r="4" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="56" t="s">
         <v>131</v>
       </c>
-      <c r="B4" s="68"/>
-      <c r="C4" s="69"/>
-      <c r="D4" s="69"/>
-      <c r="E4" s="69"/>
-      <c r="F4" s="70"/>
+      <c r="B4" s="64"/>
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="65"/>
+      <c r="F4" s="66"/>
     </row>
     <row r="5" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="56" t="s">
@@ -2925,10 +2911,10 @@
         <v>134</v>
       </c>
       <c r="B6" s="137"/>
-      <c r="C6" s="69"/>
-      <c r="D6" s="69"/>
-      <c r="E6" s="69"/>
-      <c r="F6" s="70"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="65"/>
+      <c r="F6" s="66"/>
     </row>
     <row r="7" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="56" t="s">
@@ -2983,32 +2969,32 @@
     <row r="1" spans="1:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
+      <c r="B3" s="71"/>
+      <c r="C3" s="71"/>
+      <c r="D3" s="71"/>
+      <c r="E3" s="71"/>
+      <c r="F3" s="71"/>
+      <c r="G3" s="71"/>
+      <c r="H3" s="71"/>
+      <c r="I3" s="71"/>
+      <c r="J3" s="71"/>
     </row>
     <row r="4" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="72" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="77"/>
-      <c r="I4" s="77"/>
-      <c r="J4" s="77"/>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="73"/>
+      <c r="H4" s="73"/>
+      <c r="I4" s="73"/>
+      <c r="J4" s="73"/>
     </row>
     <row r="5" spans="1:14" s="12" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
@@ -3025,13 +3011,13 @@
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
       <c r="J5" s="32"/>
-      <c r="K5" s="74" t="s">
+      <c r="K5" s="70" t="s">
         <v>93</v>
       </c>
-      <c r="M5" s="74" t="s">
+      <c r="M5" s="70" t="s">
         <v>98</v>
       </c>
-      <c r="N5" s="74" t="s">
+      <c r="N5" s="70" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3048,9 +3034,9 @@
       <c r="H6" s="34"/>
       <c r="I6" s="34"/>
       <c r="J6" s="35"/>
-      <c r="K6" s="74"/>
-      <c r="M6" s="74"/>
-      <c r="N6" s="74"/>
+      <c r="K6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
     </row>
     <row r="7" spans="1:14" s="12" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="33"/>
@@ -3063,30 +3049,30 @@
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
       <c r="J7" s="38"/>
-      <c r="K7" s="74"/>
-      <c r="M7" s="74"/>
-      <c r="N7" s="74"/>
+      <c r="K7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
     </row>
     <row r="8" spans="1:14" s="12" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="78" t="s">
+      <c r="B8" s="74" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="78"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="78"/>
+      <c r="C8" s="74"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
+      <c r="F8" s="74"/>
+      <c r="G8" s="74"/>
       <c r="H8" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="I8" s="79"/>
-      <c r="J8" s="80"/>
-      <c r="K8" s="74"/>
-      <c r="M8" s="74"/>
-      <c r="N8" s="74"/>
+      <c r="I8" s="75"/>
+      <c r="J8" s="76"/>
+      <c r="K8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
     </row>
     <row r="9" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23"/>
@@ -3099,9 +3085,9 @@
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="25"/>
-      <c r="K9" s="74"/>
-      <c r="M9" s="74"/>
-      <c r="N9" s="74"/>
+      <c r="K9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
     </row>
     <row r="10" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
@@ -3118,9 +3104,9 @@
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
       <c r="J10" s="25"/>
-      <c r="K10" s="74"/>
-      <c r="M10" s="74"/>
-      <c r="N10" s="74"/>
+      <c r="K10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
     </row>
     <row r="11" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="26"/>
@@ -3133,9 +3119,9 @@
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
       <c r="J11" s="28"/>
-      <c r="K11" s="74"/>
-      <c r="M11" s="74"/>
-      <c r="N11" s="74"/>
+      <c r="K11" s="70"/>
+      <c r="M11" s="70"/>
+      <c r="N11" s="70"/>
     </row>
     <row r="12" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="39" t="s">
@@ -3205,26 +3191,26 @@
   <sheetData>
     <row r="1" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="77" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="59"/>
-      <c r="D1" s="59"/>
-      <c r="E1" s="59"/>
-      <c r="F1" s="59"/>
-      <c r="G1" s="59"/>
-      <c r="H1" s="59"/>
-      <c r="I1" s="59"/>
-      <c r="J1" s="59"/>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
-      <c r="M1" s="59"/>
-      <c r="N1" s="59"/>
-      <c r="O1" s="59"/>
-      <c r="P1" s="59"/>
-      <c r="Q1" s="59"/>
-      <c r="R1" s="59"/>
-      <c r="S1" s="61" t="s">
+      <c r="C1" s="77"/>
+      <c r="D1" s="77"/>
+      <c r="E1" s="77"/>
+      <c r="F1" s="77"/>
+      <c r="G1" s="77"/>
+      <c r="H1" s="77"/>
+      <c r="I1" s="77"/>
+      <c r="J1" s="77"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
+      <c r="M1" s="77"/>
+      <c r="N1" s="77"/>
+      <c r="O1" s="77"/>
+      <c r="P1" s="77"/>
+      <c r="Q1" s="77"/>
+      <c r="R1" s="77"/>
+      <c r="S1" s="78" t="s">
         <v>7</v>
       </c>
     </row>
@@ -3234,186 +3220,186 @@
         <v>8</v>
       </c>
       <c r="C2" s="91"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="81"/>
-      <c r="G2" s="81"/>
-      <c r="H2" s="81"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="83" t="s">
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="79"/>
+      <c r="H2" s="79"/>
+      <c r="I2" s="79"/>
+      <c r="J2" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="84"/>
-      <c r="L2" s="84"/>
-      <c r="M2" s="84"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="84"/>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="85"/>
-      <c r="S2" s="61"/>
+      <c r="K2" s="82"/>
+      <c r="L2" s="82"/>
+      <c r="M2" s="82"/>
+      <c r="N2" s="82"/>
+      <c r="O2" s="82"/>
+      <c r="P2" s="82"/>
+      <c r="Q2" s="82"/>
+      <c r="R2" s="83"/>
+      <c r="S2" s="78"/>
     </row>
     <row r="3" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="92"/>
       <c r="C3" s="93"/>
-      <c r="D3" s="82"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="82"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="86"/>
-      <c r="K3" s="87"/>
-      <c r="L3" s="87"/>
-      <c r="M3" s="87"/>
-      <c r="N3" s="87"/>
-      <c r="O3" s="87"/>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="88"/>
-      <c r="S3" s="61"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
+      <c r="N3" s="85"/>
+      <c r="O3" s="85"/>
+      <c r="P3" s="85"/>
+      <c r="Q3" s="85"/>
+      <c r="R3" s="86"/>
+      <c r="S3" s="78"/>
     </row>
     <row r="4" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="92"/>
       <c r="C4" s="93"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="86"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="87"/>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="88"/>
-      <c r="S4" s="61"/>
+      <c r="D4" s="80"/>
+      <c r="E4" s="80"/>
+      <c r="F4" s="80"/>
+      <c r="G4" s="80"/>
+      <c r="H4" s="80"/>
+      <c r="I4" s="80"/>
+      <c r="J4" s="84"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="M4" s="85"/>
+      <c r="N4" s="85"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="85"/>
+      <c r="Q4" s="85"/>
+      <c r="R4" s="86"/>
+      <c r="S4" s="78"/>
     </row>
     <row r="5" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="92"/>
       <c r="C5" s="93"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="61"/>
+      <c r="D5" s="80"/>
+      <c r="E5" s="80"/>
+      <c r="F5" s="80"/>
+      <c r="G5" s="80"/>
+      <c r="H5" s="80"/>
+      <c r="I5" s="80"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="85"/>
+      <c r="M5" s="85"/>
+      <c r="N5" s="85"/>
+      <c r="O5" s="85"/>
+      <c r="P5" s="85"/>
+      <c r="Q5" s="85"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="78"/>
     </row>
     <row r="6" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="92"/>
       <c r="C6" s="93"/>
-      <c r="D6" s="82"/>
-      <c r="E6" s="82"/>
-      <c r="F6" s="82"/>
-      <c r="G6" s="82"/>
-      <c r="H6" s="82"/>
-      <c r="I6" s="82"/>
-      <c r="J6" s="86" t="s">
+      <c r="D6" s="80"/>
+      <c r="E6" s="80"/>
+      <c r="F6" s="80"/>
+      <c r="G6" s="80"/>
+      <c r="H6" s="80"/>
+      <c r="I6" s="80"/>
+      <c r="J6" s="84" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="87"/>
-      <c r="L6" s="87"/>
-      <c r="M6" s="87"/>
-      <c r="N6" s="87"/>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="88"/>
-      <c r="S6" s="61"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="86"/>
+      <c r="S6" s="78"/>
     </row>
     <row r="7" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
       <c r="B7" s="92"/>
       <c r="C7" s="93"/>
-      <c r="D7" s="82"/>
-      <c r="E7" s="82"/>
-      <c r="F7" s="82"/>
-      <c r="G7" s="82"/>
-      <c r="H7" s="82"/>
-      <c r="I7" s="82"/>
-      <c r="J7" s="86"/>
-      <c r="K7" s="87"/>
-      <c r="L7" s="87"/>
-      <c r="M7" s="87"/>
-      <c r="N7" s="87"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="88"/>
-      <c r="S7" s="61"/>
+      <c r="D7" s="80"/>
+      <c r="E7" s="80"/>
+      <c r="F7" s="80"/>
+      <c r="G7" s="80"/>
+      <c r="H7" s="80"/>
+      <c r="I7" s="80"/>
+      <c r="J7" s="84"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="85"/>
+      <c r="N7" s="85"/>
+      <c r="O7" s="85"/>
+      <c r="P7" s="85"/>
+      <c r="Q7" s="85"/>
+      <c r="R7" s="86"/>
+      <c r="S7" s="78"/>
     </row>
     <row r="8" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
       <c r="B8" s="92"/>
       <c r="C8" s="93"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
-      <c r="F8" s="82"/>
-      <c r="G8" s="82"/>
-      <c r="H8" s="82"/>
-      <c r="I8" s="82"/>
-      <c r="J8" s="86"/>
-      <c r="K8" s="87"/>
-      <c r="L8" s="87"/>
-      <c r="M8" s="87"/>
-      <c r="N8" s="87"/>
-      <c r="O8" s="87"/>
-      <c r="P8" s="87"/>
-      <c r="Q8" s="87"/>
-      <c r="R8" s="88"/>
-      <c r="S8" s="61"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
+      <c r="F8" s="80"/>
+      <c r="G8" s="80"/>
+      <c r="H8" s="80"/>
+      <c r="I8" s="80"/>
+      <c r="J8" s="84"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="85"/>
+      <c r="N8" s="85"/>
+      <c r="O8" s="85"/>
+      <c r="P8" s="85"/>
+      <c r="Q8" s="85"/>
+      <c r="R8" s="86"/>
+      <c r="S8" s="78"/>
     </row>
     <row r="9" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
       <c r="B9" s="92"/>
       <c r="C9" s="93"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
-      <c r="F9" s="82"/>
-      <c r="G9" s="82"/>
-      <c r="H9" s="82"/>
-      <c r="I9" s="82"/>
-      <c r="J9" s="86"/>
-      <c r="K9" s="87"/>
-      <c r="L9" s="87"/>
-      <c r="M9" s="87"/>
-      <c r="N9" s="87"/>
-      <c r="O9" s="87"/>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="87"/>
-      <c r="R9" s="88"/>
-      <c r="S9" s="61"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
+      <c r="F9" s="80"/>
+      <c r="G9" s="80"/>
+      <c r="H9" s="80"/>
+      <c r="I9" s="80"/>
+      <c r="J9" s="84"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="85"/>
+      <c r="N9" s="85"/>
+      <c r="O9" s="85"/>
+      <c r="P9" s="85"/>
+      <c r="Q9" s="85"/>
+      <c r="R9" s="86"/>
+      <c r="S9" s="78"/>
     </row>
     <row r="10" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
       <c r="B10" s="92"/>
       <c r="C10" s="93"/>
-      <c r="D10" s="62" t="s">
+      <c r="D10" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="62"/>
-      <c r="F10" s="62"/>
-      <c r="G10" s="62"/>
-      <c r="H10" s="62"/>
-      <c r="I10" s="62"/>
+      <c r="E10" s="87"/>
+      <c r="F10" s="87"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="87"/>
+      <c r="I10" s="87"/>
       <c r="J10" s="3" t="s">
         <v>12</v>
       </c>
@@ -3441,18 +3427,18 @@
       <c r="R10" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="S10" s="61"/>
+      <c r="S10" s="78"/>
     </row>
     <row r="11" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="94"/>
       <c r="C11" s="95"/>
-      <c r="D11" s="60"/>
-      <c r="E11" s="60"/>
-      <c r="F11" s="60"/>
-      <c r="G11" s="60"/>
-      <c r="H11" s="60"/>
-      <c r="I11" s="60"/>
+      <c r="D11" s="88"/>
+      <c r="E11" s="88"/>
+      <c r="F11" s="88"/>
+      <c r="G11" s="88"/>
+      <c r="H11" s="88"/>
+      <c r="I11" s="88"/>
       <c r="J11" s="51"/>
       <c r="K11" s="52"/>
       <c r="L11" s="52"/>
@@ -3462,7 +3448,7 @@
       <c r="P11" s="52"/>
       <c r="Q11" s="52"/>
       <c r="R11" s="53"/>
-      <c r="S11" s="61"/>
+      <c r="S11" s="78"/>
     </row>
     <row r="12" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
@@ -3485,10 +3471,10 @@
       <c r="P12" s="89"/>
       <c r="Q12" s="89"/>
       <c r="R12" s="89"/>
-      <c r="S12" s="61"/>
+      <c r="S12" s="78"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="S13" s="61"/>
+      <c r="S13" s="78"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3665,206 +3651,204 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="107" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
+      <c r="B1" s="107"/>
+      <c r="C1" s="107"/>
+      <c r="D1" s="107"/>
+      <c r="E1" s="107"/>
+      <c r="F1" s="107"/>
+      <c r="G1" s="107"/>
+      <c r="H1" s="107"/>
+      <c r="I1" s="107"/>
+      <c r="J1" s="107"/>
+      <c r="K1" s="107"/>
+      <c r="L1" s="107"/>
+      <c r="M1" s="107"/>
     </row>
     <row r="2" spans="1:13" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="108" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
+      <c r="B2" s="108"/>
+      <c r="C2" s="108"/>
+      <c r="D2" s="108"/>
+      <c r="E2" s="108"/>
+      <c r="F2" s="108"/>
+      <c r="G2" s="108"/>
+      <c r="H2" s="108"/>
+      <c r="I2" s="108"/>
+      <c r="J2" s="108"/>
+      <c r="K2" s="108"/>
+      <c r="L2" s="108"/>
+      <c r="M2" s="108"/>
     </row>
     <row r="3" spans="1:13" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="119" t="s">
+      <c r="A3" s="106" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
+      <c r="B3" s="106"/>
+      <c r="C3" s="106"/>
+      <c r="D3" s="106"/>
       <c r="E3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="119" t="s">
+      <c r="F3" s="106" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119" t="s">
+      <c r="G3" s="106"/>
+      <c r="H3" s="106" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119" t="s">
+      <c r="I3" s="106"/>
+      <c r="J3" s="106" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119" t="s">
+      <c r="K3" s="106"/>
+      <c r="L3" s="106" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="119"/>
+      <c r="M3" s="106"/>
     </row>
     <row r="4" spans="1:13" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="119"/>
-      <c r="B4" s="119"/>
-      <c r="C4" s="119"/>
-      <c r="D4" s="119"/>
+      <c r="A4" s="106"/>
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="119"/>
-      <c r="G4" s="119"/>
-      <c r="H4" s="119"/>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="119"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="106"/>
+      <c r="H4" s="106"/>
+      <c r="I4" s="106"/>
+      <c r="J4" s="106"/>
+      <c r="K4" s="106"/>
+      <c r="L4" s="106"/>
+      <c r="M4" s="106"/>
     </row>
     <row r="5" spans="1:13" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="119"/>
-      <c r="B5" s="119"/>
-      <c r="C5" s="119"/>
-      <c r="D5" s="119"/>
+      <c r="A5" s="106"/>
+      <c r="B5" s="106"/>
+      <c r="C5" s="106"/>
+      <c r="D5" s="106"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="119"/>
-      <c r="G5" s="119"/>
-      <c r="H5" s="119"/>
-      <c r="I5" s="119"/>
-      <c r="J5" s="119"/>
-      <c r="K5" s="119"/>
-      <c r="L5" s="119"/>
-      <c r="M5" s="119"/>
+      <c r="F5" s="106"/>
+      <c r="G5" s="106"/>
+      <c r="H5" s="106"/>
+      <c r="I5" s="106"/>
+      <c r="J5" s="106"/>
+      <c r="K5" s="106"/>
+      <c r="L5" s="106"/>
+      <c r="M5" s="106"/>
     </row>
     <row r="6" spans="1:13" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="119"/>
-      <c r="B6" s="119"/>
-      <c r="C6" s="119"/>
-      <c r="D6" s="119"/>
+      <c r="A6" s="106"/>
+      <c r="B6" s="106"/>
+      <c r="C6" s="106"/>
+      <c r="D6" s="106"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="119"/>
-      <c r="G6" s="119"/>
-      <c r="H6" s="119"/>
-      <c r="I6" s="119"/>
-      <c r="J6" s="119"/>
-      <c r="K6" s="119"/>
-      <c r="L6" s="119"/>
-      <c r="M6" s="119"/>
+      <c r="F6" s="106"/>
+      <c r="G6" s="106"/>
+      <c r="H6" s="106"/>
+      <c r="I6" s="106"/>
+      <c r="J6" s="106"/>
+      <c r="K6" s="106"/>
+      <c r="L6" s="106"/>
+      <c r="M6" s="106"/>
     </row>
     <row r="7" spans="1:13" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="119"/>
-      <c r="B7" s="119"/>
-      <c r="C7" s="119"/>
-      <c r="D7" s="119"/>
+      <c r="A7" s="106"/>
+      <c r="B7" s="106"/>
+      <c r="C7" s="106"/>
+      <c r="D7" s="106"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="119"/>
-      <c r="H7" s="119"/>
-      <c r="I7" s="119"/>
-      <c r="J7" s="119"/>
-      <c r="K7" s="119"/>
-      <c r="L7" s="119"/>
-      <c r="M7" s="119"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="106"/>
+      <c r="H7" s="106"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="106"/>
+      <c r="K7" s="106"/>
+      <c r="L7" s="106"/>
+      <c r="M7" s="106"/>
     </row>
     <row r="8" spans="1:13" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="118" t="s">
+      <c r="A8" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="106" t="s">
+      <c r="B8" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="107"/>
-      <c r="D8" s="107"/>
-      <c r="E8" s="107"/>
-      <c r="F8" s="107"/>
-      <c r="G8" s="108"/>
-      <c r="H8" s="106" t="s">
+      <c r="C8" s="110"/>
+      <c r="D8" s="110"/>
+      <c r="E8" s="110"/>
+      <c r="F8" s="110"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="109" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="107"/>
-      <c r="J8" s="107"/>
-      <c r="K8" s="107"/>
-      <c r="L8" s="107"/>
-      <c r="M8" s="108"/>
+      <c r="I8" s="110"/>
+      <c r="J8" s="110"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="111"/>
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="118"/>
-      <c r="B9" s="109"/>
-      <c r="C9" s="110"/>
-      <c r="D9" s="110"/>
-      <c r="E9" s="110"/>
-      <c r="F9" s="110"/>
-      <c r="G9" s="111"/>
-      <c r="H9" s="109"/>
-      <c r="I9" s="110"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="110"/>
-      <c r="M9" s="111"/>
+      <c r="A9" s="121"/>
+      <c r="B9" s="112"/>
+      <c r="C9" s="113"/>
+      <c r="D9" s="113"/>
+      <c r="E9" s="113"/>
+      <c r="F9" s="113"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="112"/>
+      <c r="I9" s="113"/>
+      <c r="J9" s="113"/>
+      <c r="K9" s="113"/>
+      <c r="L9" s="113"/>
+      <c r="M9" s="114"/>
     </row>
     <row r="10" spans="1:13" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="118"/>
-      <c r="B10" s="112"/>
-      <c r="C10" s="113"/>
-      <c r="D10" s="113"/>
-      <c r="E10" s="113"/>
-      <c r="F10" s="113"/>
-      <c r="G10" s="114"/>
-      <c r="H10" s="112"/>
-      <c r="I10" s="113"/>
-      <c r="J10" s="113"/>
-      <c r="K10" s="113"/>
-      <c r="L10" s="113"/>
-      <c r="M10" s="114"/>
+      <c r="A10" s="121"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="116"/>
+      <c r="D10" s="116"/>
+      <c r="E10" s="116"/>
+      <c r="F10" s="116"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="116"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="117"/>
     </row>
     <row r="11" spans="1:13" s="7" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="118"/>
-      <c r="B11" s="115"/>
-      <c r="C11" s="116"/>
-      <c r="D11" s="116"/>
-      <c r="E11" s="116"/>
-      <c r="F11" s="116"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="115"/>
-      <c r="I11" s="116"/>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="116"/>
-      <c r="M11" s="117"/>
+      <c r="A11" s="121"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="119"/>
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="120"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="119"/>
+      <c r="M11" s="120"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="H7:I7"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="F7:G7"/>
+    <mergeCell ref="L4:M7"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="B9:G11"/>
+    <mergeCell ref="H9:M11"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:G8"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="F3:G3"/>
@@ -3872,16 +3856,18 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="B9:G11"/>
-    <mergeCell ref="H9:M11"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="L4:M7"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.94" right="0.70866141732283472" top="0.59" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4070,6 +4056,16 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
     <mergeCell ref="E8:F8"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:D13"/>
@@ -4077,16 +4073,6 @@
     <mergeCell ref="A14:B15"/>
     <mergeCell ref="C14:D15"/>
     <mergeCell ref="E14:F15"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
     <mergeCell ref="A11:B12"/>
     <mergeCell ref="C11:D12"/>
     <mergeCell ref="E11:F12"/>
@@ -4224,6 +4210,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="A8:B8"/>
@@ -4231,11 +4222,6 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4391,16 +4377,16 @@
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="A8:B8"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:F6"/>
     <mergeCell ref="A7:B7"/>

--- a/xlsx-templates/open_account.xlsx
+++ b/xlsx-templates/open_account.xlsx
@@ -25,6 +25,9 @@
     <sheet name="用章申请表" sheetId="15" state="hidden" r:id="rId11"/>
     <sheet name="开户申请表" sheetId="18" r:id="rId12"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">开户申请表!$A$1:$F$7</definedName>
+  </definedNames>
   <calcPr calcId="114210" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
@@ -1556,12 +1559,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1601,26 +1598,32 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2295,13 +2298,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C16:I16"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="G6:I6"/>
@@ -2316,6 +2312,13 @@
     <mergeCell ref="A8:B10"/>
     <mergeCell ref="A11:A14"/>
     <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C16:I16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2833,10 +2836,13 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="B7" sqref="A1:F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="38.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2945,7 +2951,9 @@
     <mergeCell ref="B6:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.70000000000000007" right="0.70000000000000007" top="0.75000000000000011" bottom="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+  <pageSetup paperSize="28" orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3651,38 +3659,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="107" t="s">
+      <c r="A1" s="120" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="107"/>
-      <c r="C1" s="107"/>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="107"/>
-      <c r="I1" s="107"/>
-      <c r="J1" s="107"/>
-      <c r="K1" s="107"/>
-      <c r="L1" s="107"/>
-      <c r="M1" s="107"/>
+      <c r="B1" s="120"/>
+      <c r="C1" s="120"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="120"/>
+      <c r="F1" s="120"/>
+      <c r="G1" s="120"/>
+      <c r="H1" s="120"/>
+      <c r="I1" s="120"/>
+      <c r="J1" s="120"/>
+      <c r="K1" s="120"/>
+      <c r="L1" s="120"/>
+      <c r="M1" s="120"/>
     </row>
     <row r="2" spans="1:13" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="108" t="s">
+      <c r="A2" s="121" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="108"/>
-      <c r="C2" s="108"/>
-      <c r="D2" s="108"/>
-      <c r="E2" s="108"/>
-      <c r="F2" s="108"/>
-      <c r="G2" s="108"/>
-      <c r="H2" s="108"/>
-      <c r="I2" s="108"/>
-      <c r="J2" s="108"/>
-      <c r="K2" s="108"/>
-      <c r="L2" s="108"/>
-      <c r="M2" s="108"/>
+      <c r="B2" s="121"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="121"/>
+      <c r="E2" s="121"/>
+      <c r="F2" s="121"/>
+      <c r="G2" s="121"/>
+      <c r="H2" s="121"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
+      <c r="M2" s="121"/>
     </row>
     <row r="3" spans="1:13" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="106" t="s">
@@ -3772,83 +3780,74 @@
       <c r="M7" s="106"/>
     </row>
     <row r="8" spans="1:13" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="121" t="s">
+      <c r="A8" s="119" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="109" t="s">
+      <c r="B8" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="110"/>
-      <c r="D8" s="110"/>
-      <c r="E8" s="110"/>
-      <c r="F8" s="110"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="109" t="s">
+      <c r="C8" s="108"/>
+      <c r="D8" s="108"/>
+      <c r="E8" s="108"/>
+      <c r="F8" s="108"/>
+      <c r="G8" s="109"/>
+      <c r="H8" s="107" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="110"/>
-      <c r="J8" s="110"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="111"/>
+      <c r="I8" s="108"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="108"/>
+      <c r="L8" s="108"/>
+      <c r="M8" s="109"/>
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="121"/>
-      <c r="B9" s="112"/>
-      <c r="C9" s="113"/>
-      <c r="D9" s="113"/>
-      <c r="E9" s="113"/>
-      <c r="F9" s="113"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="112"/>
-      <c r="I9" s="113"/>
-      <c r="J9" s="113"/>
-      <c r="K9" s="113"/>
-      <c r="L9" s="113"/>
-      <c r="M9" s="114"/>
+      <c r="A9" s="119"/>
+      <c r="B9" s="110"/>
+      <c r="C9" s="111"/>
+      <c r="D9" s="111"/>
+      <c r="E9" s="111"/>
+      <c r="F9" s="111"/>
+      <c r="G9" s="112"/>
+      <c r="H9" s="110"/>
+      <c r="I9" s="111"/>
+      <c r="J9" s="111"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="111"/>
+      <c r="M9" s="112"/>
     </row>
     <row r="10" spans="1:13" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="121"/>
-      <c r="B10" s="115"/>
-      <c r="C10" s="116"/>
-      <c r="D10" s="116"/>
-      <c r="E10" s="116"/>
-      <c r="F10" s="116"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="115"/>
-      <c r="I10" s="116"/>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="116"/>
-      <c r="M10" s="117"/>
+      <c r="A10" s="119"/>
+      <c r="B10" s="113"/>
+      <c r="C10" s="114"/>
+      <c r="D10" s="114"/>
+      <c r="E10" s="114"/>
+      <c r="F10" s="114"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="113"/>
+      <c r="I10" s="114"/>
+      <c r="J10" s="114"/>
+      <c r="K10" s="114"/>
+      <c r="L10" s="114"/>
+      <c r="M10" s="115"/>
     </row>
     <row r="11" spans="1:13" s="7" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="121"/>
-      <c r="B11" s="118"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="119"/>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="120"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="119"/>
-      <c r="K11" s="119"/>
-      <c r="L11" s="119"/>
-      <c r="M11" s="120"/>
+      <c r="A11" s="119"/>
+      <c r="B11" s="116"/>
+      <c r="C11" s="117"/>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="117"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="116"/>
+      <c r="I11" s="117"/>
+      <c r="J11" s="117"/>
+      <c r="K11" s="117"/>
+      <c r="L11" s="117"/>
+      <c r="M11" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="L4:M7"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="B9:G11"/>
-    <mergeCell ref="H9:M11"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="F7:G7"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
     <mergeCell ref="F3:G3"/>
@@ -3856,6 +3855,16 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="J3:K3"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="B9:G11"/>
+    <mergeCell ref="H9:M11"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="L4:M7"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:D5"/>
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
@@ -3867,7 +3876,6 @@
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="H7:I7"/>
-    <mergeCell ref="F7:G7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.94" right="0.70866141732283472" top="0.59" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -4056,26 +4064,26 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="E7:F7"/>
-    <mergeCell ref="E9:F9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="E6:F6"/>
-    <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E11:F12"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="E13:F13"/>
     <mergeCell ref="A14:B15"/>
     <mergeCell ref="C14:D15"/>
     <mergeCell ref="E14:F15"/>
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="E6:F6"/>
+    <mergeCell ref="E7:F7"/>
+    <mergeCell ref="E9:F9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="E8:F8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4102,26 +4110,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
     </row>
     <row r="2" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128" t="s">
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -4129,14 +4137,14 @@
       <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -4144,14 +4152,14 @@
       <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -4159,14 +4167,14 @@
       <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -4174,14 +4182,14 @@
       <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="124" t="s">
+      <c r="A6" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
@@ -4189,32 +4197,27 @@
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="124" t="s">
+      <c r="A7" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
     </row>
     <row r="8" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="124" t="s">
+      <c r="A8" s="127" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="124"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="A8:B8"/>
@@ -4222,6 +4225,11 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:F6"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4249,26 +4257,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="126" t="s">
+      <c r="A1" s="124" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="126"/>
-      <c r="C1" s="126"/>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
     </row>
     <row r="2" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="127" t="s">
+      <c r="A2" s="125" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="128"/>
-      <c r="C2" s="128"/>
-      <c r="D2" s="128" t="s">
+      <c r="B2" s="126"/>
+      <c r="C2" s="126"/>
+      <c r="D2" s="126" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="128"/>
-      <c r="F2" s="128"/>
+      <c r="E2" s="126"/>
+      <c r="F2" s="126"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -4276,14 +4284,14 @@
       <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="128" t="s">
+      <c r="A3" s="126" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="127"/>
-      <c r="C3" s="127"/>
-      <c r="D3" s="127"/>
-      <c r="E3" s="127"/>
-      <c r="F3" s="127"/>
+      <c r="B3" s="125"/>
+      <c r="C3" s="125"/>
+      <c r="D3" s="125"/>
+      <c r="E3" s="125"/>
+      <c r="F3" s="125"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -4291,14 +4299,14 @@
       <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="128" t="s">
+      <c r="A4" s="126" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="128"/>
-      <c r="C4" s="128"/>
-      <c r="D4" s="128"/>
-      <c r="E4" s="128"/>
-      <c r="F4" s="128"/>
+      <c r="B4" s="126"/>
+      <c r="C4" s="126"/>
+      <c r="D4" s="126"/>
+      <c r="E4" s="126"/>
+      <c r="F4" s="126"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -4306,14 +4314,14 @@
       <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="125" t="s">
+      <c r="A5" s="128" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="125"/>
-      <c r="C5" s="125"/>
-      <c r="D5" s="125"/>
-      <c r="E5" s="125"/>
-      <c r="F5" s="125"/>
+      <c r="B5" s="128"/>
+      <c r="C5" s="128"/>
+      <c r="D5" s="128"/>
+      <c r="E5" s="128"/>
+      <c r="F5" s="128"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -4321,14 +4329,14 @@
       <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="124" t="s">
+      <c r="A6" s="127" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="124"/>
-      <c r="C6" s="124"/>
-      <c r="D6" s="124"/>
-      <c r="E6" s="124"/>
-      <c r="F6" s="124"/>
+      <c r="B6" s="127"/>
+      <c r="C6" s="127"/>
+      <c r="D6" s="127"/>
+      <c r="E6" s="127"/>
+      <c r="F6" s="127"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
@@ -4336,52 +4344,47 @@
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="124" t="s">
+      <c r="A7" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="124"/>
-      <c r="C7" s="124"/>
-      <c r="D7" s="124"/>
-      <c r="E7" s="124"/>
-      <c r="F7" s="124"/>
+      <c r="B7" s="127"/>
+      <c r="C7" s="127"/>
+      <c r="D7" s="127"/>
+      <c r="E7" s="127"/>
+      <c r="F7" s="127"/>
     </row>
     <row r="8" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="124" t="s">
+      <c r="A8" s="127" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="124"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="124"/>
-      <c r="E8" s="124"/>
-      <c r="F8" s="124"/>
+      <c r="B8" s="127"/>
+      <c r="C8" s="127"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="127"/>
     </row>
     <row r="9" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="124" t="s">
+      <c r="A9" s="127" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="124"/>
-      <c r="C9" s="124"/>
-      <c r="D9" s="124"/>
-      <c r="E9" s="124"/>
-      <c r="F9" s="124"/>
+      <c r="B9" s="127"/>
+      <c r="C9" s="127"/>
+      <c r="D9" s="127"/>
+      <c r="E9" s="127"/>
+      <c r="F9" s="127"/>
     </row>
     <row r="10" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="124" t="s">
+      <c r="A10" s="127" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="124"/>
-      <c r="C10" s="124"/>
-      <c r="D10" s="124"/>
-      <c r="E10" s="124"/>
-      <c r="F10" s="124"/>
+      <c r="B10" s="127"/>
+      <c r="C10" s="127"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="127"/>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="A8:B8"/>
@@ -4393,6 +4396,11 @@
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:F9"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/xlsx-templates/open_account.xlsx
+++ b/xlsx-templates/open_account.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="32980" windowHeight="19440" tabRatio="701" firstSheet="11" activeTab="11"/>
+    <workbookView xWindow="19200" yWindow="460" windowWidth="19200" windowHeight="23540" tabRatio="701" firstSheet="11" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="付款审批表" sheetId="12" state="hidden" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="开户申请表" sheetId="18" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">开户申请表!$A$1:$F$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">开户申请表!$A$1:$D$9</definedName>
   </definedNames>
   <calcPr calcId="114210" concurrentCalc="0"/>
   <extLst>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="141">
   <si>
     <t>十</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -642,10 +642,25 @@
     <t>公司负责人</t>
   </si>
   <si>
-    <t>申请时间</t>
-  </si>
-  <si>
     <t>备注</t>
+  </si>
+  <si>
+    <t>申请部门</t>
+  </si>
+  <si>
+    <t>申请日期</t>
+  </si>
+  <si>
+    <t>浙江中阅和瑞</t>
+  </si>
+  <si>
+    <t>开户性质</t>
+  </si>
+  <si>
+    <t>做业务</t>
+  </si>
+  <si>
+    <t>财务负责人</t>
   </si>
 </sst>
 </file>
@@ -876,7 +891,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="30">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1249,13 +1264,67 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="138">
+  <cellXfs count="148">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1412,33 +1481,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1559,6 +1625,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1598,17 +1670,17 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1619,12 +1691,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1634,24 +1700,45 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="31" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="31" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="31" fontId="0" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2081,17 +2168,17 @@
     <row r="1" spans="1:9" ht="6.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:9" ht="9" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:9" ht="32.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="B3" s="60"/>
-      <c r="C3" s="60"/>
-      <c r="D3" s="60"/>
-      <c r="E3" s="60"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="60"/>
-      <c r="H3" s="60"/>
-      <c r="I3" s="60"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
     </row>
     <row r="4" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
@@ -2104,200 +2191,205 @@
       <c r="F4" s="18"/>
     </row>
     <row r="5" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="59" t="s">
+      <c r="A5" s="65" t="s">
         <v>65</v>
       </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="59"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="59"/>
-      <c r="G5" s="59"/>
-      <c r="H5" s="59"/>
-      <c r="I5" s="59"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="65"/>
+      <c r="D5" s="65"/>
+      <c r="E5" s="65"/>
+      <c r="F5" s="65"/>
+      <c r="G5" s="65"/>
+      <c r="H5" s="65"/>
+      <c r="I5" s="65"/>
     </row>
     <row r="6" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="59" t="s">
+      <c r="A6" s="65" t="s">
         <v>66</v>
       </c>
-      <c r="B6" s="59"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="63"/>
+      <c r="B6" s="65"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="60"/>
+      <c r="E6" s="61"/>
       <c r="F6" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="G6" s="64"/>
-      <c r="H6" s="65"/>
-      <c r="I6" s="66"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="63"/>
+      <c r="I6" s="64"/>
     </row>
     <row r="7" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="59" t="s">
+      <c r="A7" s="65" t="s">
         <v>68</v>
       </c>
-      <c r="B7" s="59"/>
-      <c r="C7" s="67" t="s">
+      <c r="B7" s="65"/>
+      <c r="C7" s="66" t="s">
         <v>69</v>
       </c>
-      <c r="D7" s="67"/>
-      <c r="E7" s="67"/>
-      <c r="F7" s="67"/>
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
       <c r="G7" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="H7" s="68"/>
-      <c r="I7" s="68"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="67"/>
     </row>
     <row r="8" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="65" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="59"/>
-      <c r="C8" s="69" t="s">
+      <c r="B8" s="65"/>
+      <c r="C8" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="D8" s="69"/>
-      <c r="E8" s="69"/>
-      <c r="F8" s="69"/>
-      <c r="G8" s="69"/>
-      <c r="H8" s="69"/>
-      <c r="I8" s="69"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
     </row>
     <row r="9" spans="1:9" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="59"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="69"/>
-      <c r="D9" s="69"/>
-      <c r="E9" s="69"/>
-      <c r="F9" s="69"/>
-      <c r="G9" s="69"/>
-      <c r="H9" s="69"/>
-      <c r="I9" s="69"/>
+      <c r="A9" s="65"/>
+      <c r="B9" s="65"/>
+      <c r="C9" s="68"/>
+      <c r="D9" s="68"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="68"/>
+      <c r="G9" s="68"/>
+      <c r="H9" s="68"/>
+      <c r="I9" s="68"/>
     </row>
     <row r="10" spans="1:9" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="59"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="69"/>
-      <c r="F10" s="69"/>
-      <c r="G10" s="69"/>
-      <c r="H10" s="69"/>
-      <c r="I10" s="69"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="65"/>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
     </row>
     <row r="11" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="65" t="s">
         <v>72</v>
       </c>
       <c r="B11" s="21" t="s">
         <v>81</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="59"/>
-      <c r="G11" s="59"/>
-      <c r="H11" s="59"/>
-      <c r="I11" s="59"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="65"/>
+      <c r="E11" s="65"/>
+      <c r="F11" s="65"/>
+      <c r="G11" s="65"/>
+      <c r="H11" s="65"/>
+      <c r="I11" s="65"/>
     </row>
     <row r="12" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="59"/>
+      <c r="A12" s="65"/>
       <c r="B12" s="21" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
-      <c r="E12" s="59"/>
-      <c r="F12" s="59"/>
-      <c r="G12" s="59"/>
-      <c r="H12" s="59"/>
-      <c r="I12" s="59"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="65"/>
+      <c r="F12" s="65"/>
+      <c r="G12" s="65"/>
+      <c r="H12" s="65"/>
+      <c r="I12" s="65"/>
     </row>
     <row r="13" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="59"/>
+      <c r="A13" s="65"/>
       <c r="B13" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
-      <c r="E13" s="59"/>
-      <c r="F13" s="59"/>
-      <c r="G13" s="59"/>
-      <c r="H13" s="59"/>
-      <c r="I13" s="59"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
     </row>
     <row r="14" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="59"/>
+      <c r="A14" s="65"/>
       <c r="B14" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
-      <c r="F14" s="59"/>
-      <c r="G14" s="59"/>
-      <c r="H14" s="59"/>
-      <c r="I14" s="59"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="65"/>
+      <c r="H14" s="65"/>
+      <c r="I14" s="65"/>
     </row>
     <row r="15" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="59" t="s">
+      <c r="A15" s="65" t="s">
         <v>76</v>
       </c>
       <c r="B15" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="59"/>
-      <c r="E15" s="59"/>
-      <c r="F15" s="59"/>
-      <c r="G15" s="59"/>
-      <c r="H15" s="59"/>
-      <c r="I15" s="59"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
     </row>
     <row r="16" spans="1:9" ht="48" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="59"/>
+      <c r="A16" s="65"/>
       <c r="B16" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="59"/>
-      <c r="H16" s="59"/>
-      <c r="I16" s="59"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="65"/>
+      <c r="H16" s="65"/>
+      <c r="I16" s="65"/>
     </row>
     <row r="17" spans="1:9" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="59"/>
+      <c r="A17" s="65"/>
       <c r="B17" s="21" t="s">
         <v>78</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="59"/>
-      <c r="G17" s="59"/>
-      <c r="H17" s="59"/>
-      <c r="I17" s="59"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
     </row>
     <row r="18" spans="1:9" ht="72.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="59"/>
+      <c r="A18" s="65"/>
       <c r="B18" s="21" t="s">
         <v>79</v>
       </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="65"/>
+      <c r="F18" s="65"/>
+      <c r="G18" s="65"/>
+      <c r="H18" s="65"/>
+      <c r="I18" s="65"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C17:I17"/>
+    <mergeCell ref="C14:I14"/>
+    <mergeCell ref="C15:I15"/>
+    <mergeCell ref="C13:I13"/>
+    <mergeCell ref="C16:I16"/>
     <mergeCell ref="A3:I3"/>
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="G6:I6"/>
@@ -2314,11 +2406,6 @@
     <mergeCell ref="A5:B5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A7:B7"/>
-    <mergeCell ref="C17:I17"/>
-    <mergeCell ref="C14:I14"/>
-    <mergeCell ref="C15:I15"/>
-    <mergeCell ref="C13:I13"/>
-    <mergeCell ref="C16:I16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2346,26 +2433,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="130" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="131"/>
-      <c r="F1" s="131"/>
-      <c r="G1" s="131"/>
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="130"/>
+      <c r="E1" s="130"/>
+      <c r="F1" s="130"/>
+      <c r="G1" s="130"/>
     </row>
     <row r="2" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
     </row>
     <row r="3" spans="1:9" ht="26" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="16" t="s">
@@ -2839,116 +2926,113 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="A1:F7"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="38.25" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15" style="40" customWidth="1"/>
-    <col min="2" max="2" width="16.5" style="40" customWidth="1"/>
-    <col min="3" max="3" width="13" style="40" customWidth="1"/>
-    <col min="4" max="4" width="15.1640625" style="40" customWidth="1"/>
+    <col min="1" max="4" width="19" style="40" customWidth="1"/>
     <col min="5" max="5" width="11" style="40" customWidth="1"/>
     <col min="6" max="6" width="14.6640625" style="40" customWidth="1"/>
     <col min="7" max="16384" width="9" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="135" t="s">
+    <row r="1" spans="1:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="132" t="s">
         <v>127</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
-      <c r="F1" s="135"/>
+      <c r="B1" s="133"/>
+      <c r="C1" s="133"/>
+      <c r="D1" s="133"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
     </row>
     <row r="2" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="56" t="s">
+      <c r="A2" s="134" t="s">
+        <v>135</v>
+      </c>
+      <c r="B2" s="135"/>
+      <c r="C2" s="135" t="s">
+        <v>136</v>
+      </c>
+      <c r="D2" s="136"/>
+    </row>
+    <row r="3" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="137" t="s">
         <v>128</v>
       </c>
-      <c r="B2" s="64"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="66"/>
-    </row>
-    <row r="3" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="56" t="s">
+      <c r="B3" s="62" t="s">
+        <v>137</v>
+      </c>
+      <c r="C3" s="138"/>
+      <c r="D3" s="139"/>
+    </row>
+    <row r="4" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="137" t="s">
         <v>129</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="56" t="s">
+      <c r="B4" s="56"/>
+      <c r="C4" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="D4" s="140"/>
+    </row>
+    <row r="5" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="137" t="s">
+        <v>131</v>
+      </c>
+      <c r="B5" s="67" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="141"/>
+      <c r="D5" s="142"/>
+    </row>
+    <row r="6" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="137" t="s">
+        <v>132</v>
+      </c>
+      <c r="B6" s="56"/>
+      <c r="C6" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="D6" s="143"/>
+    </row>
+    <row r="7" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="137" t="s">
+        <v>140</v>
+      </c>
+      <c r="B7" s="56"/>
+      <c r="C7" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="D7" s="143"/>
+    </row>
+    <row r="8" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="137" t="s">
         <v>130</v>
       </c>
-      <c r="E3" s="136"/>
-      <c r="F3" s="68"/>
-    </row>
-    <row r="4" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="B4" s="64"/>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="65"/>
-      <c r="F4" s="66"/>
-    </row>
-    <row r="5" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="56" t="s">
-        <v>132</v>
-      </c>
-      <c r="B5" s="56"/>
-      <c r="C5" s="57" t="s">
-        <v>101</v>
-      </c>
-      <c r="D5" s="58"/>
-      <c r="E5" s="56" t="s">
-        <v>133</v>
-      </c>
-      <c r="F5" s="56"/>
-    </row>
-    <row r="6" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="56" t="s">
+      <c r="B8" s="131"/>
+      <c r="C8" s="141"/>
+      <c r="D8" s="142"/>
+    </row>
+    <row r="9" spans="1:6" ht="38.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="144" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="137"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="65"/>
-      <c r="F6" s="66"/>
-    </row>
-    <row r="7" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="B7" s="132"/>
-      <c r="C7" s="133"/>
-      <c r="D7" s="133"/>
-      <c r="E7" s="133"/>
-      <c r="F7" s="134"/>
-    </row>
-    <row r="8" spans="1:6" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="49"/>
-      <c r="B8" s="49"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
+      <c r="B9" s="145"/>
+      <c r="C9" s="146"/>
+      <c r="D9" s="147"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="B3:C3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="B4:F4"/>
-    <mergeCell ref="B6:F6"/>
+  <mergeCells count="5">
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="B5:D5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
@@ -2977,32 +3061,32 @@
     <row r="1" spans="1:14" ht="10.5" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="1:14" ht="5.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:14" ht="47.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="71" t="s">
+      <c r="A3" s="70" t="s">
         <v>97</v>
       </c>
-      <c r="B3" s="71"/>
-      <c r="C3" s="71"/>
-      <c r="D3" s="71"/>
-      <c r="E3" s="71"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="71"/>
-      <c r="I3" s="71"/>
-      <c r="J3" s="71"/>
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
     </row>
     <row r="4" spans="1:14" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="71" t="s">
         <v>91</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="73"/>
-      <c r="H4" s="73"/>
-      <c r="I4" s="73"/>
-      <c r="J4" s="73"/>
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="72"/>
+      <c r="H4" s="72"/>
+      <c r="I4" s="72"/>
+      <c r="J4" s="72"/>
     </row>
     <row r="5" spans="1:14" s="12" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
@@ -3019,13 +3103,13 @@
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
       <c r="J5" s="32"/>
-      <c r="K5" s="70" t="s">
+      <c r="K5" s="69" t="s">
         <v>93</v>
       </c>
-      <c r="M5" s="70" t="s">
+      <c r="M5" s="69" t="s">
         <v>98</v>
       </c>
-      <c r="N5" s="70" t="s">
+      <c r="N5" s="69" t="s">
         <v>99</v>
       </c>
     </row>
@@ -3042,9 +3126,9 @@
       <c r="H6" s="34"/>
       <c r="I6" s="34"/>
       <c r="J6" s="35"/>
-      <c r="K6" s="70"/>
-      <c r="M6" s="70"/>
-      <c r="N6" s="70"/>
+      <c r="K6" s="69"/>
+      <c r="M6" s="69"/>
+      <c r="N6" s="69"/>
     </row>
     <row r="7" spans="1:14" s="12" customFormat="1" ht="9.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="33"/>
@@ -3057,30 +3141,30 @@
       <c r="H7" s="36"/>
       <c r="I7" s="36"/>
       <c r="J7" s="38"/>
-      <c r="K7" s="70"/>
-      <c r="M7" s="70"/>
-      <c r="N7" s="70"/>
+      <c r="K7" s="69"/>
+      <c r="M7" s="69"/>
+      <c r="N7" s="69"/>
     </row>
     <row r="8" spans="1:14" s="12" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="33" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="74" t="s">
+      <c r="B8" s="73" t="s">
         <v>92</v>
       </c>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
+      <c r="C8" s="73"/>
+      <c r="D8" s="73"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="73"/>
       <c r="H8" s="36" t="s">
         <v>87</v>
       </c>
-      <c r="I8" s="75"/>
-      <c r="J8" s="76"/>
-      <c r="K8" s="70"/>
-      <c r="M8" s="70"/>
-      <c r="N8" s="70"/>
+      <c r="I8" s="74"/>
+      <c r="J8" s="75"/>
+      <c r="K8" s="69"/>
+      <c r="M8" s="69"/>
+      <c r="N8" s="69"/>
     </row>
     <row r="9" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="23"/>
@@ -3093,9 +3177,9 @@
       <c r="H9" s="24"/>
       <c r="I9" s="24"/>
       <c r="J9" s="25"/>
-      <c r="K9" s="70"/>
-      <c r="M9" s="70"/>
-      <c r="N9" s="70"/>
+      <c r="K9" s="69"/>
+      <c r="M9" s="69"/>
+      <c r="N9" s="69"/>
     </row>
     <row r="10" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="23" t="s">
@@ -3112,9 +3196,9 @@
       <c r="H10" s="24"/>
       <c r="I10" s="24"/>
       <c r="J10" s="25"/>
-      <c r="K10" s="70"/>
-      <c r="M10" s="70"/>
-      <c r="N10" s="70"/>
+      <c r="K10" s="69"/>
+      <c r="M10" s="69"/>
+      <c r="N10" s="69"/>
     </row>
     <row r="11" spans="1:14" ht="24" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="26"/>
@@ -3127,9 +3211,9 @@
       <c r="H11" s="27"/>
       <c r="I11" s="27"/>
       <c r="J11" s="28"/>
-      <c r="K11" s="70"/>
-      <c r="M11" s="70"/>
-      <c r="N11" s="70"/>
+      <c r="K11" s="69"/>
+      <c r="M11" s="69"/>
+      <c r="N11" s="69"/>
     </row>
     <row r="12" spans="1:14" ht="27" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B12" s="39" t="s">
@@ -3199,215 +3283,215 @@
   <sheetData>
     <row r="1" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
-      <c r="B1" s="77" t="s">
+      <c r="B1" s="76" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="77"/>
-      <c r="D1" s="77"/>
-      <c r="E1" s="77"/>
-      <c r="F1" s="77"/>
-      <c r="G1" s="77"/>
-      <c r="H1" s="77"/>
-      <c r="I1" s="77"/>
-      <c r="J1" s="77"/>
-      <c r="K1" s="77"/>
-      <c r="L1" s="77"/>
-      <c r="M1" s="77"/>
-      <c r="N1" s="77"/>
-      <c r="O1" s="77"/>
-      <c r="P1" s="77"/>
-      <c r="Q1" s="77"/>
-      <c r="R1" s="77"/>
-      <c r="S1" s="78" t="s">
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="H1" s="76"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
+      <c r="N1" s="76"/>
+      <c r="O1" s="76"/>
+      <c r="P1" s="76"/>
+      <c r="Q1" s="76"/>
+      <c r="R1" s="76"/>
+      <c r="S1" s="77" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="90" t="s">
+      <c r="B2" s="89" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="91"/>
-      <c r="D2" s="79"/>
-      <c r="E2" s="79"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="79"/>
-      <c r="H2" s="79"/>
-      <c r="I2" s="79"/>
-      <c r="J2" s="81" t="s">
+      <c r="C2" s="90"/>
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="78"/>
+      <c r="G2" s="78"/>
+      <c r="H2" s="78"/>
+      <c r="I2" s="78"/>
+      <c r="J2" s="80" t="s">
         <v>9</v>
       </c>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="82"/>
-      <c r="N2" s="82"/>
-      <c r="O2" s="82"/>
-      <c r="P2" s="82"/>
-      <c r="Q2" s="82"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="78"/>
+      <c r="K2" s="81"/>
+      <c r="L2" s="81"/>
+      <c r="M2" s="81"/>
+      <c r="N2" s="81"/>
+      <c r="O2" s="81"/>
+      <c r="P2" s="81"/>
+      <c r="Q2" s="81"/>
+      <c r="R2" s="82"/>
+      <c r="S2" s="77"/>
     </row>
     <row r="3" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="92"/>
-      <c r="C3" s="93"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="84"/>
-      <c r="K3" s="85"/>
-      <c r="L3" s="85"/>
-      <c r="M3" s="85"/>
-      <c r="N3" s="85"/>
-      <c r="O3" s="85"/>
-      <c r="P3" s="85"/>
-      <c r="Q3" s="85"/>
-      <c r="R3" s="86"/>
-      <c r="S3" s="78"/>
+      <c r="B3" s="91"/>
+      <c r="C3" s="92"/>
+      <c r="D3" s="79"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="79"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="79"/>
+      <c r="I3" s="79"/>
+      <c r="J3" s="83"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="84"/>
+      <c r="N3" s="84"/>
+      <c r="O3" s="84"/>
+      <c r="P3" s="84"/>
+      <c r="Q3" s="84"/>
+      <c r="R3" s="85"/>
+      <c r="S3" s="77"/>
     </row>
     <row r="4" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
-      <c r="B4" s="92"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="84"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="85"/>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="86"/>
-      <c r="S4" s="78"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="92"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="84"/>
+      <c r="L4" s="84"/>
+      <c r="M4" s="84"/>
+      <c r="N4" s="84"/>
+      <c r="O4" s="84"/>
+      <c r="P4" s="84"/>
+      <c r="Q4" s="84"/>
+      <c r="R4" s="85"/>
+      <c r="S4" s="77"/>
     </row>
     <row r="5" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
-      <c r="B5" s="92"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="80"/>
-      <c r="E5" s="80"/>
-      <c r="F5" s="80"/>
-      <c r="G5" s="80"/>
-      <c r="H5" s="80"/>
-      <c r="I5" s="80"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="85"/>
-      <c r="M5" s="85"/>
-      <c r="N5" s="85"/>
-      <c r="O5" s="85"/>
-      <c r="P5" s="85"/>
-      <c r="Q5" s="85"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="78"/>
+      <c r="B5" s="91"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="85"/>
+      <c r="S5" s="77"/>
     </row>
     <row r="6" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="93"/>
-      <c r="D6" s="80"/>
-      <c r="E6" s="80"/>
-      <c r="F6" s="80"/>
-      <c r="G6" s="80"/>
-      <c r="H6" s="80"/>
-      <c r="I6" s="80"/>
-      <c r="J6" s="84" t="s">
+      <c r="B6" s="91"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="79"/>
+      <c r="E6" s="79"/>
+      <c r="F6" s="79"/>
+      <c r="G6" s="79"/>
+      <c r="H6" s="79"/>
+      <c r="I6" s="79"/>
+      <c r="J6" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
-      <c r="Q6" s="85"/>
-      <c r="R6" s="86"/>
-      <c r="S6" s="78"/>
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="77"/>
     </row>
     <row r="7" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1"/>
-      <c r="B7" s="92"/>
-      <c r="C7" s="93"/>
-      <c r="D7" s="80"/>
-      <c r="E7" s="80"/>
-      <c r="F7" s="80"/>
-      <c r="G7" s="80"/>
-      <c r="H7" s="80"/>
-      <c r="I7" s="80"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="85"/>
-      <c r="N7" s="85"/>
-      <c r="O7" s="85"/>
-      <c r="P7" s="85"/>
-      <c r="Q7" s="85"/>
-      <c r="R7" s="86"/>
-      <c r="S7" s="78"/>
+      <c r="B7" s="91"/>
+      <c r="C7" s="92"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
+      <c r="F7" s="79"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="79"/>
+      <c r="I7" s="79"/>
+      <c r="J7" s="83"/>
+      <c r="K7" s="84"/>
+      <c r="L7" s="84"/>
+      <c r="M7" s="84"/>
+      <c r="N7" s="84"/>
+      <c r="O7" s="84"/>
+      <c r="P7" s="84"/>
+      <c r="Q7" s="84"/>
+      <c r="R7" s="85"/>
+      <c r="S7" s="77"/>
     </row>
     <row r="8" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1"/>
-      <c r="B8" s="92"/>
-      <c r="C8" s="93"/>
-      <c r="D8" s="80"/>
-      <c r="E8" s="80"/>
-      <c r="F8" s="80"/>
-      <c r="G8" s="80"/>
-      <c r="H8" s="80"/>
-      <c r="I8" s="80"/>
-      <c r="J8" s="84"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="85"/>
-      <c r="N8" s="85"/>
-      <c r="O8" s="85"/>
-      <c r="P8" s="85"/>
-      <c r="Q8" s="85"/>
-      <c r="R8" s="86"/>
-      <c r="S8" s="78"/>
+      <c r="B8" s="91"/>
+      <c r="C8" s="92"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="79"/>
+      <c r="H8" s="79"/>
+      <c r="I8" s="79"/>
+      <c r="J8" s="83"/>
+      <c r="K8" s="84"/>
+      <c r="L8" s="84"/>
+      <c r="M8" s="84"/>
+      <c r="N8" s="84"/>
+      <c r="O8" s="84"/>
+      <c r="P8" s="84"/>
+      <c r="Q8" s="84"/>
+      <c r="R8" s="85"/>
+      <c r="S8" s="77"/>
     </row>
     <row r="9" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1"/>
-      <c r="B9" s="92"/>
-      <c r="C9" s="93"/>
-      <c r="D9" s="80"/>
-      <c r="E9" s="80"/>
-      <c r="F9" s="80"/>
-      <c r="G9" s="80"/>
-      <c r="H9" s="80"/>
-      <c r="I9" s="80"/>
-      <c r="J9" s="84"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="85"/>
-      <c r="N9" s="85"/>
-      <c r="O9" s="85"/>
-      <c r="P9" s="85"/>
-      <c r="Q9" s="85"/>
-      <c r="R9" s="86"/>
-      <c r="S9" s="78"/>
+      <c r="B9" s="91"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="79"/>
+      <c r="E9" s="79"/>
+      <c r="F9" s="79"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="79"/>
+      <c r="I9" s="79"/>
+      <c r="J9" s="83"/>
+      <c r="K9" s="84"/>
+      <c r="L9" s="84"/>
+      <c r="M9" s="84"/>
+      <c r="N9" s="84"/>
+      <c r="O9" s="84"/>
+      <c r="P9" s="84"/>
+      <c r="Q9" s="84"/>
+      <c r="R9" s="85"/>
+      <c r="S9" s="77"/>
     </row>
     <row r="10" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="93"/>
-      <c r="D10" s="87" t="s">
+      <c r="B10" s="91"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="87"/>
-      <c r="F10" s="87"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="87"/>
-      <c r="I10" s="87"/>
+      <c r="E10" s="86"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="86"/>
+      <c r="H10" s="86"/>
+      <c r="I10" s="86"/>
       <c r="J10" s="3" t="s">
         <v>12</v>
       </c>
@@ -3435,18 +3519,18 @@
       <c r="R10" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="S10" s="78"/>
+      <c r="S10" s="77"/>
     </row>
     <row r="11" spans="1:19" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
-      <c r="B11" s="94"/>
-      <c r="C11" s="95"/>
-      <c r="D11" s="88"/>
-      <c r="E11" s="88"/>
-      <c r="F11" s="88"/>
-      <c r="G11" s="88"/>
-      <c r="H11" s="88"/>
-      <c r="I11" s="88"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="87"/>
+      <c r="I11" s="87"/>
       <c r="J11" s="51"/>
       <c r="K11" s="52"/>
       <c r="L11" s="52"/>
@@ -3456,33 +3540,33 @@
       <c r="P11" s="52"/>
       <c r="Q11" s="52"/>
       <c r="R11" s="53"/>
-      <c r="S11" s="78"/>
+      <c r="S11" s="77"/>
     </row>
     <row r="12" spans="1:19" ht="30" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2"/>
       <c r="B12" s="54"/>
       <c r="C12" s="55"/>
-      <c r="D12" s="89" t="s">
+      <c r="D12" s="88" t="s">
         <v>126</v>
       </c>
-      <c r="E12" s="89"/>
-      <c r="F12" s="89"/>
-      <c r="G12" s="89"/>
-      <c r="H12" s="89"/>
-      <c r="I12" s="89"/>
-      <c r="J12" s="89"/>
-      <c r="K12" s="89"/>
-      <c r="L12" s="89"/>
-      <c r="M12" s="89"/>
-      <c r="N12" s="89"/>
-      <c r="O12" s="89"/>
-      <c r="P12" s="89"/>
-      <c r="Q12" s="89"/>
-      <c r="R12" s="89"/>
-      <c r="S12" s="78"/>
+      <c r="E12" s="88"/>
+      <c r="F12" s="88"/>
+      <c r="G12" s="88"/>
+      <c r="H12" s="88"/>
+      <c r="I12" s="88"/>
+      <c r="J12" s="88"/>
+      <c r="K12" s="88"/>
+      <c r="L12" s="88"/>
+      <c r="M12" s="88"/>
+      <c r="N12" s="88"/>
+      <c r="O12" s="88"/>
+      <c r="P12" s="88"/>
+      <c r="Q12" s="88"/>
+      <c r="R12" s="88"/>
+      <c r="S12" s="77"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.2">
-      <c r="S13" s="78"/>
+      <c r="S13" s="77"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -3522,67 +3606,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="97" t="s">
         <v>115</v>
       </c>
-      <c r="B1" s="98"/>
-      <c r="C1" s="98"/>
-      <c r="D1" s="98"/>
-      <c r="E1" s="98"/>
-      <c r="F1" s="98"/>
-      <c r="G1" s="98"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
     </row>
     <row r="2" spans="1:7" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="99" t="s">
+      <c r="A2" s="98" t="s">
         <v>114</v>
       </c>
-      <c r="B2" s="99"/>
-      <c r="C2" s="99"/>
-      <c r="D2" s="99"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="99"/>
+      <c r="B2" s="98"/>
+      <c r="C2" s="98"/>
+      <c r="D2" s="98"/>
+      <c r="E2" s="98"/>
+      <c r="F2" s="98"/>
+      <c r="G2" s="98"/>
     </row>
     <row r="3" spans="1:7" s="40" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="B3" s="100"/>
-      <c r="C3" s="101"/>
-      <c r="D3" s="101"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="102"/>
+      <c r="B3" s="99"/>
+      <c r="C3" s="100"/>
+      <c r="D3" s="100"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="101"/>
     </row>
     <row r="4" spans="1:7" s="40" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
       <c r="E4" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="F4" s="100" t="s">
+      <c r="F4" s="99" t="s">
         <v>105</v>
       </c>
-      <c r="G4" s="102"/>
+      <c r="G4" s="101"/>
     </row>
     <row r="5" spans="1:7" s="40" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="103" t="s">
+      <c r="B5" s="102" t="s">
         <v>112</v>
       </c>
-      <c r="C5" s="104"/>
-      <c r="D5" s="105"/>
-      <c r="E5" s="103" t="s">
+      <c r="C5" s="103"/>
+      <c r="D5" s="104"/>
+      <c r="E5" s="102" t="s">
         <v>113</v>
       </c>
-      <c r="F5" s="104"/>
-      <c r="G5" s="105"/>
+      <c r="F5" s="103"/>
+      <c r="G5" s="104"/>
     </row>
     <row r="6" spans="1:7" s="40" customFormat="1" ht="54" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="43" t="s">
@@ -3593,10 +3677,10 @@
         <v>104</v>
       </c>
       <c r="D6" s="42"/>
-      <c r="E6" s="96" t="s">
+      <c r="E6" s="95" t="s">
         <v>110</v>
       </c>
-      <c r="F6" s="96"/>
+      <c r="F6" s="95"/>
       <c r="G6" s="44"/>
     </row>
     <row r="7" spans="1:7" s="40" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3609,11 +3693,11 @@
       <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:7" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E8" s="97" t="s">
+      <c r="E8" s="96" t="s">
         <v>111</v>
       </c>
-      <c r="F8" s="97"/>
-      <c r="G8" s="97"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="96"/>
     </row>
     <row r="9" spans="1:7" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
@@ -3659,194 +3743,207 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="106" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="120"/>
-      <c r="C1" s="120"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="120"/>
-      <c r="F1" s="120"/>
-      <c r="G1" s="120"/>
-      <c r="H1" s="120"/>
-      <c r="I1" s="120"/>
-      <c r="J1" s="120"/>
-      <c r="K1" s="120"/>
-      <c r="L1" s="120"/>
-      <c r="M1" s="120"/>
+      <c r="B1" s="106"/>
+      <c r="C1" s="106"/>
+      <c r="D1" s="106"/>
+      <c r="E1" s="106"/>
+      <c r="F1" s="106"/>
+      <c r="G1" s="106"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="106"/>
+      <c r="J1" s="106"/>
+      <c r="K1" s="106"/>
+      <c r="L1" s="106"/>
+      <c r="M1" s="106"/>
     </row>
     <row r="2" spans="1:13" s="6" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="121" t="s">
+      <c r="A2" s="107" t="s">
         <v>103</v>
       </c>
-      <c r="B2" s="121"/>
-      <c r="C2" s="121"/>
-      <c r="D2" s="121"/>
-      <c r="E2" s="121"/>
-      <c r="F2" s="121"/>
-      <c r="G2" s="121"/>
-      <c r="H2" s="121"/>
-      <c r="I2" s="121"/>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
-      <c r="L2" s="121"/>
-      <c r="M2" s="121"/>
+      <c r="B2" s="107"/>
+      <c r="C2" s="107"/>
+      <c r="D2" s="107"/>
+      <c r="E2" s="107"/>
+      <c r="F2" s="107"/>
+      <c r="G2" s="107"/>
+      <c r="H2" s="107"/>
+      <c r="I2" s="107"/>
+      <c r="J2" s="107"/>
+      <c r="K2" s="107"/>
+      <c r="L2" s="107"/>
+      <c r="M2" s="107"/>
     </row>
     <row r="3" spans="1:13" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="105" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="106"/>
-      <c r="C3" s="106"/>
-      <c r="D3" s="106"/>
+      <c r="B3" s="105"/>
+      <c r="C3" s="105"/>
+      <c r="D3" s="105"/>
       <c r="E3" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="F3" s="106" t="s">
+      <c r="F3" s="105" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="106"/>
-      <c r="H3" s="106" t="s">
+      <c r="G3" s="105"/>
+      <c r="H3" s="105" t="s">
         <v>38</v>
       </c>
-      <c r="I3" s="106"/>
-      <c r="J3" s="106" t="s">
+      <c r="I3" s="105"/>
+      <c r="J3" s="105" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="106"/>
-      <c r="L3" s="106" t="s">
+      <c r="K3" s="105"/>
+      <c r="L3" s="105" t="s">
         <v>40</v>
       </c>
-      <c r="M3" s="106"/>
+      <c r="M3" s="105"/>
     </row>
     <row r="4" spans="1:13" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="106"/>
-      <c r="B4" s="106"/>
-      <c r="C4" s="106"/>
-      <c r="D4" s="106"/>
+      <c r="A4" s="105"/>
+      <c r="B4" s="105"/>
+      <c r="C4" s="105"/>
+      <c r="D4" s="105"/>
       <c r="E4" s="11"/>
-      <c r="F4" s="106"/>
-      <c r="G4" s="106"/>
-      <c r="H4" s="106"/>
-      <c r="I4" s="106"/>
-      <c r="J4" s="106"/>
-      <c r="K4" s="106"/>
-      <c r="L4" s="106"/>
-      <c r="M4" s="106"/>
+      <c r="F4" s="105"/>
+      <c r="G4" s="105"/>
+      <c r="H4" s="105"/>
+      <c r="I4" s="105"/>
+      <c r="J4" s="105"/>
+      <c r="K4" s="105"/>
+      <c r="L4" s="105"/>
+      <c r="M4" s="105"/>
     </row>
     <row r="5" spans="1:13" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="106"/>
-      <c r="B5" s="106"/>
-      <c r="C5" s="106"/>
-      <c r="D5" s="106"/>
+      <c r="A5" s="105"/>
+      <c r="B5" s="105"/>
+      <c r="C5" s="105"/>
+      <c r="D5" s="105"/>
       <c r="E5" s="11"/>
-      <c r="F5" s="106"/>
-      <c r="G5" s="106"/>
-      <c r="H5" s="106"/>
-      <c r="I5" s="106"/>
-      <c r="J5" s="106"/>
-      <c r="K5" s="106"/>
-      <c r="L5" s="106"/>
-      <c r="M5" s="106"/>
+      <c r="F5" s="105"/>
+      <c r="G5" s="105"/>
+      <c r="H5" s="105"/>
+      <c r="I5" s="105"/>
+      <c r="J5" s="105"/>
+      <c r="K5" s="105"/>
+      <c r="L5" s="105"/>
+      <c r="M5" s="105"/>
     </row>
     <row r="6" spans="1:13" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="106"/>
-      <c r="B6" s="106"/>
-      <c r="C6" s="106"/>
-      <c r="D6" s="106"/>
+      <c r="A6" s="105"/>
+      <c r="B6" s="105"/>
+      <c r="C6" s="105"/>
+      <c r="D6" s="105"/>
       <c r="E6" s="11"/>
-      <c r="F6" s="106"/>
-      <c r="G6" s="106"/>
-      <c r="H6" s="106"/>
-      <c r="I6" s="106"/>
-      <c r="J6" s="106"/>
-      <c r="K6" s="106"/>
-      <c r="L6" s="106"/>
-      <c r="M6" s="106"/>
+      <c r="F6" s="105"/>
+      <c r="G6" s="105"/>
+      <c r="H6" s="105"/>
+      <c r="I6" s="105"/>
+      <c r="J6" s="105"/>
+      <c r="K6" s="105"/>
+      <c r="L6" s="105"/>
+      <c r="M6" s="105"/>
     </row>
     <row r="7" spans="1:13" s="6" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="106"/>
-      <c r="B7" s="106"/>
-      <c r="C7" s="106"/>
-      <c r="D7" s="106"/>
+      <c r="A7" s="105"/>
+      <c r="B7" s="105"/>
+      <c r="C7" s="105"/>
+      <c r="D7" s="105"/>
       <c r="E7" s="11"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="106"/>
-      <c r="H7" s="106"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="106"/>
-      <c r="K7" s="106"/>
-      <c r="L7" s="106"/>
-      <c r="M7" s="106"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="105"/>
+      <c r="H7" s="105"/>
+      <c r="I7" s="105"/>
+      <c r="J7" s="105"/>
+      <c r="K7" s="105"/>
+      <c r="L7" s="105"/>
+      <c r="M7" s="105"/>
     </row>
     <row r="8" spans="1:13" s="7" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="119" t="s">
+      <c r="A8" s="120" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="107" t="s">
+      <c r="B8" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="108"/>
-      <c r="D8" s="108"/>
-      <c r="E8" s="108"/>
-      <c r="F8" s="108"/>
-      <c r="G8" s="109"/>
-      <c r="H8" s="107" t="s">
+      <c r="C8" s="109"/>
+      <c r="D8" s="109"/>
+      <c r="E8" s="109"/>
+      <c r="F8" s="109"/>
+      <c r="G8" s="110"/>
+      <c r="H8" s="108" t="s">
         <v>33</v>
       </c>
-      <c r="I8" s="108"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="108"/>
-      <c r="L8" s="108"/>
-      <c r="M8" s="109"/>
+      <c r="I8" s="109"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="110"/>
     </row>
     <row r="9" spans="1:13" s="7" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="119"/>
-      <c r="B9" s="110"/>
-      <c r="C9" s="111"/>
-      <c r="D9" s="111"/>
-      <c r="E9" s="111"/>
-      <c r="F9" s="111"/>
-      <c r="G9" s="112"/>
-      <c r="H9" s="110"/>
-      <c r="I9" s="111"/>
-      <c r="J9" s="111"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="112"/>
+      <c r="A9" s="120"/>
+      <c r="B9" s="111"/>
+      <c r="C9" s="112"/>
+      <c r="D9" s="112"/>
+      <c r="E9" s="112"/>
+      <c r="F9" s="112"/>
+      <c r="G9" s="113"/>
+      <c r="H9" s="111"/>
+      <c r="I9" s="112"/>
+      <c r="J9" s="112"/>
+      <c r="K9" s="112"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="113"/>
     </row>
     <row r="10" spans="1:13" s="7" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="119"/>
-      <c r="B10" s="113"/>
-      <c r="C10" s="114"/>
-      <c r="D10" s="114"/>
-      <c r="E10" s="114"/>
-      <c r="F10" s="114"/>
-      <c r="G10" s="115"/>
-      <c r="H10" s="113"/>
-      <c r="I10" s="114"/>
-      <c r="J10" s="114"/>
-      <c r="K10" s="114"/>
-      <c r="L10" s="114"/>
-      <c r="M10" s="115"/>
+      <c r="A10" s="120"/>
+      <c r="B10" s="114"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="116"/>
+      <c r="H10" s="114"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="115"/>
+      <c r="M10" s="116"/>
     </row>
     <row r="11" spans="1:13" s="7" customFormat="1" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="119"/>
-      <c r="B11" s="116"/>
-      <c r="C11" s="117"/>
-      <c r="D11" s="117"/>
-      <c r="E11" s="117"/>
-      <c r="F11" s="117"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="116"/>
-      <c r="I11" s="117"/>
-      <c r="J11" s="117"/>
-      <c r="K11" s="117"/>
-      <c r="L11" s="117"/>
-      <c r="M11" s="118"/>
+      <c r="A11" s="120"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="118"/>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="118"/>
+      <c r="G11" s="119"/>
+      <c r="H11" s="117"/>
+      <c r="I11" s="118"/>
+      <c r="J11" s="118"/>
+      <c r="K11" s="118"/>
+      <c r="L11" s="118"/>
+      <c r="M11" s="119"/>
     </row>
   </sheetData>
   <mergeCells count="29">
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
+    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="F6:G6"/>
+    <mergeCell ref="H6:I6"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="J6:K6"/>
+    <mergeCell ref="J7:K7"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="B9:G11"/>
+    <mergeCell ref="H9:M11"/>
+    <mergeCell ref="A8:A11"/>
+    <mergeCell ref="B8:G8"/>
     <mergeCell ref="F7:G7"/>
     <mergeCell ref="A1:M1"/>
     <mergeCell ref="A2:M2"/>
@@ -3855,11 +3952,6 @@
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="L3:M3"/>
     <mergeCell ref="J3:K3"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="B9:G11"/>
-    <mergeCell ref="H9:M11"/>
-    <mergeCell ref="A8:A11"/>
-    <mergeCell ref="B8:G8"/>
     <mergeCell ref="L4:M7"/>
     <mergeCell ref="J4:K4"/>
     <mergeCell ref="J5:K5"/>
@@ -3868,14 +3960,6 @@
     <mergeCell ref="H5:I5"/>
     <mergeCell ref="F4:G4"/>
     <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F6:G6"/>
-    <mergeCell ref="H6:I6"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="J6:K6"/>
-    <mergeCell ref="J7:K7"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
-    <mergeCell ref="H7:I7"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.94" right="0.70866141732283472" top="0.59" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
@@ -3903,14 +3987,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="36" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="123" t="s">
+      <c r="A1" s="122" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="123"/>
-      <c r="C1" s="123"/>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
@@ -3939,10 +4023,10 @@
       <c r="D3" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E3" s="122" t="s">
+      <c r="E3" s="121" t="s">
         <v>24</v>
       </c>
-      <c r="F3" s="122"/>
+      <c r="F3" s="121"/>
     </row>
     <row r="4" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="10">
@@ -3951,8 +4035,8 @@
       <c r="B4" s="10"/>
       <c r="C4" s="10"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="122"/>
-      <c r="F4" s="122"/>
+      <c r="E4" s="121"/>
+      <c r="F4" s="121"/>
     </row>
     <row r="5" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="10">
@@ -3961,8 +4045,8 @@
       <c r="B5" s="10"/>
       <c r="C5" s="10"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="122"/>
-      <c r="F5" s="122"/>
+      <c r="E5" s="121"/>
+      <c r="F5" s="121"/>
     </row>
     <row r="6" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="10">
@@ -3971,8 +4055,8 @@
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="122"/>
-      <c r="F6" s="122"/>
+      <c r="E6" s="121"/>
+      <c r="F6" s="121"/>
     </row>
     <row r="7" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="10">
@@ -3981,8 +4065,8 @@
       <c r="B7" s="10"/>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="122"/>
-      <c r="F7" s="122"/>
+      <c r="E7" s="121"/>
+      <c r="F7" s="121"/>
     </row>
     <row r="8" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10">
@@ -3991,85 +4075,79 @@
       <c r="B8" s="10"/>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
-      <c r="E8" s="122"/>
-      <c r="F8" s="122"/>
+      <c r="E8" s="121"/>
+      <c r="F8" s="121"/>
     </row>
     <row r="9" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10"/>
       <c r="B9" s="10"/>
       <c r="C9" s="10"/>
       <c r="D9" s="10"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
+      <c r="E9" s="121"/>
+      <c r="F9" s="121"/>
     </row>
     <row r="10" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="122" t="s">
+      <c r="A10" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="122"/>
-      <c r="C10" s="122" t="s">
+      <c r="B10" s="121"/>
+      <c r="C10" s="121" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122" t="s">
+      <c r="D10" s="121"/>
+      <c r="E10" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="122"/>
+      <c r="F10" s="121"/>
     </row>
     <row r="11" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="122"/>
-      <c r="B11" s="122"/>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
+      <c r="A11" s="121"/>
+      <c r="B11" s="121"/>
+      <c r="C11" s="121"/>
+      <c r="D11" s="121"/>
+      <c r="E11" s="121"/>
+      <c r="F11" s="121"/>
     </row>
     <row r="12" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="122"/>
-      <c r="B12" s="122"/>
-      <c r="C12" s="122"/>
-      <c r="D12" s="122"/>
-      <c r="E12" s="122"/>
-      <c r="F12" s="122"/>
+      <c r="A12" s="121"/>
+      <c r="B12" s="121"/>
+      <c r="C12" s="121"/>
+      <c r="D12" s="121"/>
+      <c r="E12" s="121"/>
+      <c r="F12" s="121"/>
     </row>
     <row r="13" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="122" t="s">
+      <c r="A13" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="122"/>
-      <c r="C13" s="122" t="s">
+      <c r="B13" s="121"/>
+      <c r="C13" s="121" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122" t="s">
+      <c r="D13" s="121"/>
+      <c r="E13" s="121" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="122"/>
+      <c r="F13" s="121"/>
     </row>
     <row r="14" spans="1:6" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="122"/>
-      <c r="B14" s="122"/>
-      <c r="C14" s="122"/>
-      <c r="D14" s="122"/>
-      <c r="E14" s="122"/>
-      <c r="F14" s="122"/>
+      <c r="A14" s="121"/>
+      <c r="B14" s="121"/>
+      <c r="C14" s="121"/>
+      <c r="D14" s="121"/>
+      <c r="E14" s="121"/>
+      <c r="F14" s="121"/>
     </row>
     <row r="15" spans="1:6" ht="36.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="122"/>
-      <c r="B15" s="122"/>
-      <c r="C15" s="122"/>
-      <c r="D15" s="122"/>
-      <c r="E15" s="122"/>
-      <c r="F15" s="122"/>
+      <c r="A15" s="121"/>
+      <c r="B15" s="121"/>
+      <c r="C15" s="121"/>
+      <c r="D15" s="121"/>
+      <c r="E15" s="121"/>
+      <c r="F15" s="121"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A11:B12"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="E11:F12"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="C13:D13"/>
-    <mergeCell ref="E13:F13"/>
     <mergeCell ref="A14:B15"/>
     <mergeCell ref="C14:D15"/>
     <mergeCell ref="E14:F15"/>
@@ -4084,6 +4162,12 @@
     <mergeCell ref="C10:D10"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E8:F8"/>
+    <mergeCell ref="A11:B12"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="E11:F12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="E13:F13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4110,26 +4194,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
     </row>
     <row r="2" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126" t="s">
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -4137,14 +4221,14 @@
       <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -4152,14 +4236,14 @@
       <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="127" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -4167,14 +4251,14 @@
       <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="128" t="s">
+      <c r="A5" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -4182,14 +4266,14 @@
       <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="127" t="s">
+      <c r="A6" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="127"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
@@ -4197,27 +4281,32 @@
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="127" t="s">
+      <c r="A7" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="B7" s="127"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
     </row>
     <row r="8" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="123" t="s">
         <v>116</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="A8:B8"/>
@@ -4225,11 +4314,6 @@
     <mergeCell ref="A5:F5"/>
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="C6:F6"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4257,26 +4341,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="46.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="124" t="s">
+      <c r="A1" s="125" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="124"/>
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
+      <c r="B1" s="125"/>
+      <c r="C1" s="125"/>
+      <c r="D1" s="125"/>
+      <c r="E1" s="125"/>
+      <c r="F1" s="125"/>
     </row>
     <row r="2" spans="1:11" ht="34.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="125" t="s">
+      <c r="A2" s="126" t="s">
         <v>42</v>
       </c>
-      <c r="B2" s="126"/>
-      <c r="C2" s="126"/>
-      <c r="D2" s="126" t="s">
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127" t="s">
         <v>43</v>
       </c>
-      <c r="E2" s="126"/>
-      <c r="F2" s="126"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
       <c r="G2" s="13"/>
       <c r="H2" s="13"/>
       <c r="I2" s="13"/>
@@ -4284,14 +4368,14 @@
       <c r="K2" s="13"/>
     </row>
     <row r="3" spans="1:11" ht="35.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="126" t="s">
+      <c r="A3" s="127" t="s">
         <v>44</v>
       </c>
-      <c r="B3" s="125"/>
-      <c r="C3" s="125"/>
-      <c r="D3" s="125"/>
-      <c r="E3" s="125"/>
-      <c r="F3" s="125"/>
+      <c r="B3" s="126"/>
+      <c r="C3" s="126"/>
+      <c r="D3" s="126"/>
+      <c r="E3" s="126"/>
+      <c r="F3" s="126"/>
       <c r="G3" s="13"/>
       <c r="H3" s="13"/>
       <c r="I3" s="13"/>
@@ -4299,14 +4383,14 @@
       <c r="K3" s="13"/>
     </row>
     <row r="4" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="126" t="s">
+      <c r="A4" s="127" t="s">
         <v>45</v>
       </c>
-      <c r="B4" s="126"/>
-      <c r="C4" s="126"/>
-      <c r="D4" s="126"/>
-      <c r="E4" s="126"/>
-      <c r="F4" s="126"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
@@ -4314,14 +4398,14 @@
       <c r="K4" s="13"/>
     </row>
     <row r="5" spans="1:11" ht="89.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="128" t="s">
+      <c r="A5" s="124" t="s">
         <v>46</v>
       </c>
-      <c r="B5" s="128"/>
-      <c r="C5" s="128"/>
-      <c r="D5" s="128"/>
-      <c r="E5" s="128"/>
-      <c r="F5" s="128"/>
+      <c r="B5" s="124"/>
+      <c r="C5" s="124"/>
+      <c r="D5" s="124"/>
+      <c r="E5" s="124"/>
+      <c r="F5" s="124"/>
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
       <c r="I5" s="14"/>
@@ -4329,14 +4413,14 @@
       <c r="K5" s="14"/>
     </row>
     <row r="6" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="127" t="s">
+      <c r="A6" s="123" t="s">
         <v>47</v>
       </c>
-      <c r="B6" s="127"/>
-      <c r="C6" s="127"/>
-      <c r="D6" s="127"/>
-      <c r="E6" s="127"/>
-      <c r="F6" s="127"/>
+      <c r="B6" s="123"/>
+      <c r="C6" s="123"/>
+      <c r="D6" s="123"/>
+      <c r="E6" s="123"/>
+      <c r="F6" s="123"/>
       <c r="G6" s="15"/>
       <c r="H6" s="15"/>
       <c r="I6" s="15"/>
@@ -4344,47 +4428,52 @@
       <c r="K6" s="13"/>
     </row>
     <row r="7" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="127" t="s">
+      <c r="A7" s="123" t="s">
         <v>48</v>
       </c>
-      <c r="B7" s="127"/>
-      <c r="C7" s="127"/>
-      <c r="D7" s="127"/>
-      <c r="E7" s="127"/>
-      <c r="F7" s="127"/>
+      <c r="B7" s="123"/>
+      <c r="C7" s="123"/>
+      <c r="D7" s="123"/>
+      <c r="E7" s="123"/>
+      <c r="F7" s="123"/>
     </row>
     <row r="8" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="127" t="s">
+      <c r="A8" s="123" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="127"/>
-      <c r="C8" s="127"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="127"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="123"/>
+      <c r="D8" s="123"/>
+      <c r="E8" s="123"/>
+      <c r="F8" s="123"/>
     </row>
     <row r="9" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="127" t="s">
+      <c r="A9" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="127"/>
-      <c r="C9" s="127"/>
-      <c r="D9" s="127"/>
-      <c r="E9" s="127"/>
-      <c r="F9" s="127"/>
+      <c r="B9" s="123"/>
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
     </row>
     <row r="10" spans="1:11" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="127" t="s">
+      <c r="A10" s="123" t="s">
         <v>51</v>
       </c>
-      <c r="B10" s="127"/>
-      <c r="C10" s="127"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="127"/>
-      <c r="F10" s="127"/>
+      <c r="B10" s="123"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:F2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="A4:F4"/>
     <mergeCell ref="A10:B10"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="A8:B8"/>
@@ -4396,11 +4485,6 @@
     <mergeCell ref="C7:F7"/>
     <mergeCell ref="A9:B9"/>
     <mergeCell ref="C9:F9"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:F2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="A4:F4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4426,13 +4510,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="33" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="128" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="130"/>
-      <c r="E1" s="130"/>
+      <c r="B1" s="129"/>
+      <c r="C1" s="129"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
     </row>
     <row r="2" spans="1:5" ht="9" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="41"/>
